--- a/dados_v2/linear.xlsx
+++ b/dados_v2/linear.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="linear" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <t>local</t>
   </si>
   <si>
-    <t>ponto</t>
+    <t>parcela</t>
   </si>
   <si>
     <t>vegetacao</t>
   </si>
   <si>
-    <t>numero</t>
+    <t>fuste</t>
   </si>
   <si>
     <t>especie</t>
@@ -801,11 +801,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
     <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="22">
@@ -823,21 +823,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -852,6 +837,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -859,11 +852,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,10 +882,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,9 +924,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,15 +945,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,14 +968,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,13 +983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,13 +1043,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1097,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,127 +1151,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,15 +1174,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1197,6 +1188,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,6 +1225,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1249,21 +1264,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1277,31 +1277,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,115 +1310,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:J1297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
